--- a/脚本详情.xlsx
+++ b/脚本详情.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note\File\code\github\monitor_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7EAE0-D801-4E9D-8319-82D08668B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6EEAC3-5730-4CEE-B539-1A7EAF4BDAA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="山石防火墙" sheetId="1" r:id="rId1"/>
     <sheet name="H3C交换机" sheetId="2" r:id="rId2"/>
+    <sheet name="华为交换机" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -217,13 +218,7 @@
     <t>display device</t>
   </si>
   <si>
-    <t>业务板</t>
-  </si>
-  <si>
     <t>Master/Standby</t>
-  </si>
-  <si>
-    <t>主控板</t>
   </si>
   <si>
     <t>display cpu-usage</t>
@@ -329,15 +324,184 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_power.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>check_device.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>脚本名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>运行时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>display version</t>
+    </r>
+  </si>
+  <si>
+    <t>uptime is * day</t>
+  </si>
+  <si>
+    <t>&lt;2day</t>
+  </si>
+  <si>
+    <t>S6520X-54QC-EI 华为交换机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>display power</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>State</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Normal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hw_power_check.sh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>display fan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hw_fan_check.sh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>display device</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S6520X-54QC-EI 华为交换机</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CPU Usage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>display memory-usage</t>
+    </r>
+  </si>
+  <si>
+    <t>Memory Using percentage is：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hw_memusage_check.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>hw_cpuusage_check.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hw_device_check.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hw_uptime_check.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +547,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -398,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -407,135 +604,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{527A9EF6-F0CC-4398-8E8D-F47AB3240A96}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,7 +984,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,288 +999,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="19">
         <v>0.6</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="19">
         <v>0.6</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="20">
         <v>60</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1125,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A07986-335A-4BA8-AA47-303B812DF1D4}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1143,471 +1311,682 @@
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="23">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="23">
+        <v>50</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E4118-2FBF-4B4F-A040-22C741DAAFCE}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="B2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="H5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="E6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="20">
-        <v>25</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="20">
-        <v>50</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="E7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
